--- a/base_dados.xlsx
+++ b/base_dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\Desktop\Projetos\efaro-horas extras_mod2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D5F584-6F79-4DDF-A77F-9A66B858853E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62484AFB-0CF0-42D3-B90B-AEC747EBFBCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,22 +44,22 @@
     <t>Dia</t>
   </si>
   <si>
-    <t>Entrada1</t>
-  </si>
-  <si>
-    <t>Saída1</t>
-  </si>
-  <si>
-    <t>Entrada2</t>
-  </si>
-  <si>
-    <t>Saída2</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
     <t>Expediente</t>
+  </si>
+  <si>
+    <t>Entrada 1</t>
+  </si>
+  <si>
+    <t>Saída 1</t>
+  </si>
+  <si>
+    <t>Entrada 2</t>
+  </si>
+  <si>
+    <t>Saída 2</t>
   </si>
 </sst>
 </file>
@@ -236,16 +236,16 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
+        <top style="thin">
           <color indexed="64"/>
-        </bottom>
+        </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="thin">
+        <bottom style="thin">
           <color indexed="64"/>
-        </top>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -296,17 +296,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E49D2A9E-4B2D-442C-8A5B-1166A261B733}" name="Tabela1" displayName="Tabela1" ref="A1:H144" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E49D2A9E-4B2D-442C-8A5B-1166A261B733}" name="Tabela1" displayName="Tabela1" ref="A1:H144" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8">
   <autoFilter ref="A1:H144" xr:uid="{E49D2A9E-4B2D-442C-8A5B-1166A261B733}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{BE5355BA-A4FD-4D9A-9F41-663FA69FE04B}" name="Data" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{D35D2D6A-0B97-4665-8226-0A601E6DA3B0}" name="Dia" dataDxfId="6">
       <calculatedColumnFormula>TEXT(A2,"dddd")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{EA58D69C-43C9-4262-8DB2-A44E101C0ECB}" name="Entrada1" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{DF00FAFA-68B4-4CDE-B6DD-EF908C0A519A}" name="Saída1" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{A9756BC6-AABB-41B7-831D-A935DDA2A2C2}" name="Entrada2" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{EFED025A-49B2-4155-A587-CF2EF7D92785}" name="Saída2" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{EA58D69C-43C9-4262-8DB2-A44E101C0ECB}" name="Entrada 1" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{DF00FAFA-68B4-4CDE-B6DD-EF908C0A519A}" name="Saída 1" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{A9756BC6-AABB-41B7-831D-A935DDA2A2C2}" name="Entrada 2" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{EFED025A-49B2-4155-A587-CF2EF7D92785}" name="Saída 2" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{65BEC60D-97E3-45B2-8160-47582162218E}" name="Expediente" dataDxfId="1"/>
     <tableColumn id="8" xr3:uid="{519C7D1F-F8C2-49CC-A4FC-5C9A2EEBFC3D}" name="Total" dataDxfId="0">
       <calculatedColumnFormula>((D2-C2)+(F2-E2))-Tabela1[[#This Row],[Expediente]]</calculatedColumnFormula>
@@ -583,7 +583,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B145" sqref="B145:H147"/>
+      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,22 +606,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">

--- a/base_dados.xlsx
+++ b/base_dados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\Desktop\Projetos\efaro-horas extras_mod2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62484AFB-0CF0-42D3-B90B-AEC747EBFBCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C5AABF-5DB0-4F97-B928-3E83714A468E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -164,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -198,6 +196,9 @@
     </xf>
     <xf numFmtId="21" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -296,8 +297,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E49D2A9E-4B2D-442C-8A5B-1166A261B733}" name="Tabela1" displayName="Tabela1" ref="A1:H144" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8">
-  <autoFilter ref="A1:H144" xr:uid="{E49D2A9E-4B2D-442C-8A5B-1166A261B733}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E49D2A9E-4B2D-442C-8A5B-1166A261B733}" name="Tabela1" displayName="Tabela1" ref="A1:H253" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8">
+  <autoFilter ref="A1:H253" xr:uid="{E49D2A9E-4B2D-442C-8A5B-1166A261B733}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{BE5355BA-A4FD-4D9A-9F41-663FA69FE04B}" name="Data" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{D35D2D6A-0B97-4665-8226-0A601E6DA3B0}" name="Dia" dataDxfId="6">
@@ -579,11 +580,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H144"/>
+  <dimension ref="A1:H253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
+      <pane ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B190" sqref="B190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4618,14 +4619,2286 @@
         <v>0.57708333333333328</v>
       </c>
       <c r="F144" s="11">
-        <v>0.74305555555555558</v>
+        <v>0.74027777777777781</v>
       </c>
       <c r="G144" s="11">
         <v>0.36666666666666664</v>
       </c>
       <c r="H144" s="6">
         <f>((D144-C144)+(F144-E144))-Tabela1[[#This Row],[Expediente]]</f>
-        <v>2.0138888888889039E-2</v>
+        <v>1.7361111111111271E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="12">
+        <v>45916</v>
+      </c>
+      <c r="B145" s="5" t="str">
+        <f t="shared" ref="B145:B168" si="3">TEXT(A145,"dddd")</f>
+        <v>terça-feira</v>
+      </c>
+      <c r="C145" s="6">
+        <v>0.30694444444444446</v>
+      </c>
+      <c r="D145" s="6">
+        <v>0.51875000000000004</v>
+      </c>
+      <c r="E145" s="6">
+        <v>0.57708333333333328</v>
+      </c>
+      <c r="F145" s="6">
+        <v>0.74305555555555558</v>
+      </c>
+      <c r="G145" s="6">
+        <v>0.36666666666666664</v>
+      </c>
+      <c r="H145" s="6">
+        <f>((D145-C145)+(F145-E145))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>1.1111111111111238E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="12">
+        <v>45917</v>
+      </c>
+      <c r="B146" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>quarta-feira</v>
+      </c>
+      <c r="C146" s="6">
+        <v>0.30833333333333335</v>
+      </c>
+      <c r="D146" s="6">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="E146" s="6">
+        <v>0.57847222222222228</v>
+      </c>
+      <c r="F146" s="6">
+        <v>0.74375000000000002</v>
+      </c>
+      <c r="G146" s="11">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H146" s="6">
+        <f>((D146-C146)+(F146-E146))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>1.8055555555555214E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="12">
+        <v>45918</v>
+      </c>
+      <c r="B147" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>quinta-feira</v>
+      </c>
+      <c r="C147" s="6">
+        <v>0.30763888888888891</v>
+      </c>
+      <c r="D147" s="6">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E147" s="6">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="F147" s="6">
+        <v>0.7416666666666667</v>
+      </c>
+      <c r="G147" s="6">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H147" s="6">
+        <f>((D147-C147)+(F147-E147))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>1.3194444444444231E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="12">
+        <v>45919</v>
+      </c>
+      <c r="B148" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>sexta-feira</v>
+      </c>
+      <c r="C148" s="6">
+        <v>0.30972222222222223</v>
+      </c>
+      <c r="D148" s="6">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="E148" s="6">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="F148" s="6">
+        <v>0.7416666666666667</v>
+      </c>
+      <c r="G148" s="11">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H148" s="6">
+        <f>((D148-C148)+(F148-E148))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>1.8055555555555325E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="12">
+        <v>45922</v>
+      </c>
+      <c r="B149" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>segunda-feira</v>
+      </c>
+      <c r="C149" s="6">
+        <v>0.3125</v>
+      </c>
+      <c r="D149" s="6">
+        <v>0.54305555555555551</v>
+      </c>
+      <c r="E149" s="6">
+        <v>0.59097222222222223</v>
+      </c>
+      <c r="F149" s="6">
+        <v>0.74236111111111114</v>
+      </c>
+      <c r="G149" s="6">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H149" s="6">
+        <f>((D149-C149)+(F149-E149))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>1.5277777777777446E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" s="12">
+        <v>45923</v>
+      </c>
+      <c r="B150" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>terça-feira</v>
+      </c>
+      <c r="C150" s="6">
+        <v>0.3125</v>
+      </c>
+      <c r="D150" s="6">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E150" s="6">
+        <v>0.57777777777777772</v>
+      </c>
+      <c r="F150" s="6">
+        <v>0.7416666666666667</v>
+      </c>
+      <c r="G150" s="11">
+        <v>0.36666666666666664</v>
+      </c>
+      <c r="H150" s="6">
+        <f>((D150-C150)+(F150-E150))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>5.5555555555557024E-3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="12">
+        <v>45924</v>
+      </c>
+      <c r="B151" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>quarta-feira</v>
+      </c>
+      <c r="C151" s="6">
+        <v>0.30416666666666664</v>
+      </c>
+      <c r="D151" s="6">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="E151" s="6">
+        <v>0.57986111111111116</v>
+      </c>
+      <c r="F151" s="6">
+        <v>0.74236111111111114</v>
+      </c>
+      <c r="G151" s="6">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H151" s="6">
+        <f>((D151-C151)+(F151-E151))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>1.5972222222221943E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="12">
+        <v>45925</v>
+      </c>
+      <c r="B152" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>quinta-feira</v>
+      </c>
+      <c r="C152" s="6">
+        <v>0.30069444444444443</v>
+      </c>
+      <c r="D152" s="6">
+        <v>0.51875000000000004</v>
+      </c>
+      <c r="E152" s="6">
+        <v>0.57847222222222228</v>
+      </c>
+      <c r="F152" s="6">
+        <v>0.74305555555555558</v>
+      </c>
+      <c r="G152" s="11">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H152" s="6">
+        <f>((D152-C152)+(F152-E152))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>1.5972222222221943E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="12">
+        <v>45926</v>
+      </c>
+      <c r="B153" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>sexta-feira</v>
+      </c>
+      <c r="C153" s="6">
+        <v>0.30277777777777776</v>
+      </c>
+      <c r="D153" s="6">
+        <v>0.52361111111111114</v>
+      </c>
+      <c r="E153" s="6">
+        <v>0.57430555555555551</v>
+      </c>
+      <c r="F153" s="6">
+        <v>0.74305555555555558</v>
+      </c>
+      <c r="G153" s="6">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H153" s="6">
+        <f>((D153-C153)+(F153-E153))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>2.2916666666666474E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="12">
+        <v>45929</v>
+      </c>
+      <c r="B154" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>segunda-feira</v>
+      </c>
+      <c r="C154" s="6">
+        <v>0.30972222222222223</v>
+      </c>
+      <c r="D154" s="6">
+        <v>0.5229166666666667</v>
+      </c>
+      <c r="E154" s="6">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="F154" s="6">
+        <v>0.75277777777777777</v>
+      </c>
+      <c r="G154" s="11">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H154" s="6">
+        <f>((D154-C154)+(F154-E154))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>2.6388888888888629E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" s="12">
+        <v>45930</v>
+      </c>
+      <c r="B155" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>terça-feira</v>
+      </c>
+      <c r="C155" s="6">
+        <v>0.30625000000000002</v>
+      </c>
+      <c r="D155" s="6">
+        <v>0.52569444444444446</v>
+      </c>
+      <c r="E155" s="6">
+        <v>0.57708333333333328</v>
+      </c>
+      <c r="F155" s="6">
+        <v>0.76180555555555551</v>
+      </c>
+      <c r="G155" s="6">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H155" s="6">
+        <f>((D155-C155)+(F155-E155))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>3.74999999999997E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" s="12">
+        <v>45931</v>
+      </c>
+      <c r="B156" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>quarta-feira</v>
+      </c>
+      <c r="C156" s="6">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="D156" s="6">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="E156" s="6">
+        <v>0.57708333333333328</v>
+      </c>
+      <c r="F156" s="6">
+        <v>0.74583333333333335</v>
+      </c>
+      <c r="G156" s="11">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H156" s="6">
+        <f>((D156-C156)+(F156-E156))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>2.49999999999998E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="12">
+        <v>45932</v>
+      </c>
+      <c r="B157" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>quinta-feira</v>
+      </c>
+      <c r="C157" s="6">
+        <v>0.31041666666666667</v>
+      </c>
+      <c r="D157" s="6">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="E157" s="6">
+        <v>0.57777777777777772</v>
+      </c>
+      <c r="F157" s="6">
+        <v>0.73819444444444449</v>
+      </c>
+      <c r="G157" s="6">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H157" s="6">
+        <f>((D157-C157)+(F157-E157))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>8.3333333333331372E-3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" s="12">
+        <v>45933</v>
+      </c>
+      <c r="B158" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>sexta-feira</v>
+      </c>
+      <c r="C158" s="6">
+        <v>0.30416666666666664</v>
+      </c>
+      <c r="D158" s="6">
+        <v>0.52222222222222225</v>
+      </c>
+      <c r="E158" s="6">
+        <v>0.5756944444444444</v>
+      </c>
+      <c r="F158" s="6">
+        <v>0.74027777777777781</v>
+      </c>
+      <c r="G158" s="11">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H158" s="6">
+        <f>((D158-C158)+(F158-E158))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>1.5972222222222054E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" s="12">
+        <v>45936</v>
+      </c>
+      <c r="B159" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>segunda-feira</v>
+      </c>
+      <c r="C159" s="6">
+        <v>0.30555555555555558</v>
+      </c>
+      <c r="D159" s="6">
+        <v>0.52708333333333335</v>
+      </c>
+      <c r="E159" s="6">
+        <v>0.57638888888888884</v>
+      </c>
+      <c r="F159" s="6">
+        <v>0.74583333333333335</v>
+      </c>
+      <c r="G159" s="6">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H159" s="6">
+        <f>((D159-C159)+(F159-E159))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>2.4305555555555303E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" s="12">
+        <v>45937</v>
+      </c>
+      <c r="B160" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>terça-feira</v>
+      </c>
+      <c r="C160" s="6">
+        <v>0.30416666666666664</v>
+      </c>
+      <c r="D160" s="6">
+        <v>0.5180555555555556</v>
+      </c>
+      <c r="E160" s="6">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="F160" s="6">
+        <v>0.74236111111111114</v>
+      </c>
+      <c r="G160" s="11">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H160" s="6">
+        <f>((D160-C160)+(F160-E160))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>2.0138888888888706E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="12">
+        <v>45938</v>
+      </c>
+      <c r="B161" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>quarta-feira</v>
+      </c>
+      <c r="C161" s="6">
+        <v>0.29930555555555555</v>
+      </c>
+      <c r="D161" s="6">
+        <v>0.52222222222222225</v>
+      </c>
+      <c r="E161" s="6">
+        <v>0.57916666666666672</v>
+      </c>
+      <c r="F161" s="6">
+        <v>0.7416666666666667</v>
+      </c>
+      <c r="G161" s="6">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H161" s="6">
+        <f>((D161-C161)+(F161-E161))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>1.8749999999999711E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" s="12">
+        <v>45939</v>
+      </c>
+      <c r="B162" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>quinta-feira</v>
+      </c>
+      <c r="C162" s="6">
+        <v>0.31180555555555556</v>
+      </c>
+      <c r="D162" s="6">
+        <v>0.5229166666666667</v>
+      </c>
+      <c r="E162" s="6">
+        <v>0.57638888888888884</v>
+      </c>
+      <c r="F162" s="6">
+        <v>0.7416666666666667</v>
+      </c>
+      <c r="G162" s="11">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H162" s="6">
+        <f>((D162-C162)+(F162-E162))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>9.7222222222220211E-3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" s="12">
+        <v>45940</v>
+      </c>
+      <c r="B163" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>sexta-feira</v>
+      </c>
+      <c r="C163" s="6">
+        <v>0.3125</v>
+      </c>
+      <c r="D163" s="6">
+        <v>0.53263888888888888</v>
+      </c>
+      <c r="E163" s="6">
+        <v>0.58194444444444449</v>
+      </c>
+      <c r="F163" s="6">
+        <v>0.75138888888888888</v>
+      </c>
+      <c r="G163" s="6">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H163" s="6">
+        <f>((D163-C163)+(F163-E163))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>2.2916666666666308E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" s="12">
+        <v>45943</v>
+      </c>
+      <c r="B164" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>segunda-feira</v>
+      </c>
+      <c r="C164" s="6">
+        <v>0.29583333333333334</v>
+      </c>
+      <c r="D164" s="6">
+        <v>0.52847222222222223</v>
+      </c>
+      <c r="E164" s="6">
+        <v>0.57916666666666672</v>
+      </c>
+      <c r="F164" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="G164" s="11">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H164" s="6">
+        <f>((D164-C164)+(F164-E164))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>3.6805555555555203E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" s="12">
+        <v>45944</v>
+      </c>
+      <c r="B165" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>terça-feira</v>
+      </c>
+      <c r="C165" s="6">
+        <v>0.3034722222222222</v>
+      </c>
+      <c r="D165" s="6">
+        <v>0.52152777777777781</v>
+      </c>
+      <c r="E165" s="6">
+        <v>0.57152777777777775</v>
+      </c>
+      <c r="F165" s="6">
+        <v>0.74722222222222223</v>
+      </c>
+      <c r="G165" s="6">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H165" s="6">
+        <f>((D165-C165)+(F165-E165))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>2.7083333333333126E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" s="12">
+        <v>45945</v>
+      </c>
+      <c r="B166" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>quarta-feira</v>
+      </c>
+      <c r="C166" s="6">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="D166" s="6">
+        <v>0.52013888888888893</v>
+      </c>
+      <c r="E166" s="6">
+        <v>0.57013888888888886</v>
+      </c>
+      <c r="F166" s="6">
+        <v>0.74236111111111114</v>
+      </c>
+      <c r="G166" s="11">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H166" s="6">
+        <f>((D166-C166)+(F166-E166))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>3.4027777777777546E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" s="12">
+        <v>45946</v>
+      </c>
+      <c r="B167" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>quinta-feira</v>
+      </c>
+      <c r="C167" s="6">
+        <v>0.31319444444444444</v>
+      </c>
+      <c r="D167" s="6">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="E167" s="6">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="F167" s="6">
+        <v>0.74791666666666667</v>
+      </c>
+      <c r="G167" s="6">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H167" s="6">
+        <f>((D167-C167)+(F167-E167))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>1.7361111111110883E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" s="12">
+        <v>45947</v>
+      </c>
+      <c r="B168" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>sexta-feira</v>
+      </c>
+      <c r="C168" s="6">
+        <v>0.31041666666666667</v>
+      </c>
+      <c r="D168" s="6">
+        <v>0.52361111111111114</v>
+      </c>
+      <c r="E168" s="6">
+        <v>0.57847222222222228</v>
+      </c>
+      <c r="F168" s="6">
+        <v>0.75972222222222219</v>
+      </c>
+      <c r="G168" s="11">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H168" s="6">
+        <f>((D168-C168)+(F168-E168))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>2.7777777777777402E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" s="12">
+        <v>45950</v>
+      </c>
+      <c r="B169" s="5" t="str">
+        <f t="shared" ref="B169:B190" si="4">TEXT(A169,"dddd")</f>
+        <v>segunda-feira</v>
+      </c>
+      <c r="C169" s="6">
+        <v>0.31319444444444444</v>
+      </c>
+      <c r="D169" s="6">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="E169" s="6">
+        <v>0.57708333333333328</v>
+      </c>
+      <c r="F169" s="6">
+        <v>0.74305555555555558</v>
+      </c>
+      <c r="G169" s="6">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H169" s="6">
+        <f>((D169-C169)+(F169-E169))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>1.1111111111110905E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" s="12">
+        <v>45951</v>
+      </c>
+      <c r="B170" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>terça-feira</v>
+      </c>
+      <c r="C170" s="6">
+        <v>0.31111111111111112</v>
+      </c>
+      <c r="D170" s="6">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="E170" s="6">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="F170" s="6">
+        <v>0.74513888888888891</v>
+      </c>
+      <c r="G170" s="11">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H170" s="6">
+        <f>((D170-C170)+(F170-E170))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>1.7361111111110883E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" s="12">
+        <v>45952</v>
+      </c>
+      <c r="B171" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>quarta-feira</v>
+      </c>
+      <c r="C171" s="6">
+        <v>0.30694444444444446</v>
+      </c>
+      <c r="D171" s="6">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E171" s="6">
+        <v>0.57708333333333328</v>
+      </c>
+      <c r="F171" s="6">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="G171" s="6">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H171" s="6">
+        <f>((D171-C171)+(F171-E171))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>9.7222222222220211E-3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" s="12">
+        <v>45953</v>
+      </c>
+      <c r="B172" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>quinta-feira</v>
+      </c>
+      <c r="C172" s="6">
+        <v>0.3125</v>
+      </c>
+      <c r="D172" s="6">
+        <v>0.52222222222222225</v>
+      </c>
+      <c r="E172" s="6">
+        <v>0.57847222222222228</v>
+      </c>
+      <c r="F172" s="6">
+        <v>0.74652777777777779</v>
+      </c>
+      <c r="G172" s="11">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H172" s="6">
+        <f>((D172-C172)+(F172-E172))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>1.1111111111110794E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" s="12">
+        <v>45954</v>
+      </c>
+      <c r="B173" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>sexta-feira</v>
+      </c>
+      <c r="C173" s="6">
+        <v>0.29791666666666666</v>
+      </c>
+      <c r="D173" s="6">
+        <v>0.51944444444444449</v>
+      </c>
+      <c r="E173" s="6">
+        <v>0.57361111111111107</v>
+      </c>
+      <c r="F173" s="6">
+        <v>0.7416666666666667</v>
+      </c>
+      <c r="G173" s="6">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H173" s="6">
+        <f>((D173-C173)+(F173-E173))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>2.2916666666666474E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" s="12">
+        <v>45957</v>
+      </c>
+      <c r="B174" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>segunda-feira</v>
+      </c>
+      <c r="C174" s="6">
+        <v>0.3034722222222222</v>
+      </c>
+      <c r="D174" s="6">
+        <v>0.52361111111111114</v>
+      </c>
+      <c r="E174" s="6">
+        <v>0.57847222222222228</v>
+      </c>
+      <c r="F174" s="6">
+        <v>0.74375000000000002</v>
+      </c>
+      <c r="G174" s="11">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H174" s="6">
+        <f>((D174-C174)+(F174-E174))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>1.8749999999999711E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" s="12">
+        <v>45958</v>
+      </c>
+      <c r="B175" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>terça-feira</v>
+      </c>
+      <c r="C175" s="6">
+        <v>0.30902777777777779</v>
+      </c>
+      <c r="D175" s="6">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="E175" s="6">
+        <v>0.57708333333333328</v>
+      </c>
+      <c r="F175" s="6">
+        <v>0.73750000000000004</v>
+      </c>
+      <c r="G175" s="6">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H175" s="6">
+        <f>((D175-C175)+(F175-E175))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>9.7222222222220211E-3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" s="12">
+        <v>45959</v>
+      </c>
+      <c r="B176" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>quarta-feira</v>
+      </c>
+      <c r="C176" s="6">
+        <v>0.30833333333333335</v>
+      </c>
+      <c r="D176" s="6">
+        <v>0.5229166666666667</v>
+      </c>
+      <c r="E176" s="6">
+        <v>0.57916666666666672</v>
+      </c>
+      <c r="F176" s="6">
+        <v>0.74097222222222225</v>
+      </c>
+      <c r="G176" s="11">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H176" s="6">
+        <f>((D176-C176)+(F176-E176))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>9.7222222222219101E-3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177" s="12">
+        <v>45960</v>
+      </c>
+      <c r="B177" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>quinta-feira</v>
+      </c>
+      <c r="C177" s="6">
+        <v>0.29722222222222222</v>
+      </c>
+      <c r="D177" s="6">
+        <v>0.52222222222222225</v>
+      </c>
+      <c r="E177" s="6">
+        <v>0.57916666666666672</v>
+      </c>
+      <c r="F177" s="6">
+        <v>0.74305555555555558</v>
+      </c>
+      <c r="G177" s="6">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H177" s="6">
+        <f>((D177-C177)+(F177-E177))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>2.2222222222221921E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178" s="12">
+        <v>45961</v>
+      </c>
+      <c r="B178" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>sexta-feira</v>
+      </c>
+      <c r="C178" s="6">
+        <v>0.30833333333333335</v>
+      </c>
+      <c r="D178" s="6">
+        <v>0.52222222222222225</v>
+      </c>
+      <c r="E178" s="6">
+        <v>0.57361111111111107</v>
+      </c>
+      <c r="F178" s="6">
+        <v>0.74375000000000002</v>
+      </c>
+      <c r="G178" s="11">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H178" s="6">
+        <f>((D178-C178)+(F178-E178))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>1.7361111111110883E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" s="12">
+        <v>45964</v>
+      </c>
+      <c r="B179" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>segunda-feira</v>
+      </c>
+      <c r="C179" s="6">
+        <v>0.30763888888888891</v>
+      </c>
+      <c r="D179" s="6">
+        <v>0.52708333333333335</v>
+      </c>
+      <c r="E179" s="6">
+        <v>0.57847222222222228</v>
+      </c>
+      <c r="F179" s="6">
+        <v>0.75347222222222221</v>
+      </c>
+      <c r="G179" s="6">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H179" s="6">
+        <f>((D179-C179)+(F179-E179))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>2.7777777777777402E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" s="12">
+        <v>45965</v>
+      </c>
+      <c r="B180" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>terça-feira</v>
+      </c>
+      <c r="C180" s="6">
+        <v>0.30902777777777779</v>
+      </c>
+      <c r="D180" s="6">
+        <v>0.55069444444444449</v>
+      </c>
+      <c r="E180" s="6">
+        <v>0.60555555555555551</v>
+      </c>
+      <c r="F180" s="6">
+        <v>0.74861111111111112</v>
+      </c>
+      <c r="G180" s="11">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H180" s="6">
+        <f>((D180-C180)+(F180-E180))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>1.8055555555555325E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" s="12">
+        <v>45966</v>
+      </c>
+      <c r="B181" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>quarta-feira</v>
+      </c>
+      <c r="C181" s="6">
+        <v>0.30972222222222223</v>
+      </c>
+      <c r="D181" s="6">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="E181" s="6">
+        <v>0.57361111111111107</v>
+      </c>
+      <c r="F181" s="6">
+        <v>0.74305555555555558</v>
+      </c>
+      <c r="G181" s="6">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H181" s="6">
+        <f>((D181-C181)+(F181-E181))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>2.0833333333333093E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" s="12">
+        <v>45967</v>
+      </c>
+      <c r="B182" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>quinta-feira</v>
+      </c>
+      <c r="C182" s="6">
+        <v>0.31041666666666667</v>
+      </c>
+      <c r="D182" s="6">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E182" s="6">
+        <v>0.57847222222222228</v>
+      </c>
+      <c r="F182" s="6">
+        <v>0.74375000000000002</v>
+      </c>
+      <c r="G182" s="11">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H182" s="6">
+        <f>((D182-C182)+(F182-E182))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>9.0277777777774681E-3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" s="12">
+        <v>45968</v>
+      </c>
+      <c r="B183" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>sexta-feira</v>
+      </c>
+      <c r="C183" s="6">
+        <v>0.30833333333333335</v>
+      </c>
+      <c r="D183" s="6">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="E183" s="6">
+        <v>0.57847222222222228</v>
+      </c>
+      <c r="F183" s="6">
+        <v>0.74722222222222223</v>
+      </c>
+      <c r="G183" s="6">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H183" s="6">
+        <f>((D183-C183)+(F183-E183))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>2.1527777777777424E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184" s="12">
+        <v>45971</v>
+      </c>
+      <c r="B184" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>segunda-feira</v>
+      </c>
+      <c r="C184" s="6">
+        <v>0.31111111111111112</v>
+      </c>
+      <c r="D184" s="6">
+        <v>0.52361111111111114</v>
+      </c>
+      <c r="E184" s="6">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="F184" s="6">
+        <v>0.75416666666666665</v>
+      </c>
+      <c r="G184" s="11">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H184" s="6">
+        <f>((D184-C184)+(F184-E184))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>2.4999999999999745E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185" s="12">
+        <v>45972</v>
+      </c>
+      <c r="B185" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>terça-feira</v>
+      </c>
+      <c r="G185" s="6">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H185" s="6">
+        <f>((D185-C185)+(F185-E185))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>-0.36666666666666697</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186" s="12">
+        <v>45973</v>
+      </c>
+      <c r="B186" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>quarta-feira</v>
+      </c>
+      <c r="G186" s="11">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H186" s="6">
+        <f>((D186-C186)+(F186-E186))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>-0.36666666666666697</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187" s="12">
+        <v>45974</v>
+      </c>
+      <c r="B187" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>quinta-feira</v>
+      </c>
+      <c r="G187" s="6">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H187" s="6">
+        <f>((D187-C187)+(F187-E187))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>-0.36666666666666697</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188" s="12">
+        <v>45975</v>
+      </c>
+      <c r="B188" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>sexta-feira</v>
+      </c>
+      <c r="G188" s="11">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H188" s="6">
+        <f>((D188-C188)+(F188-E188))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>-0.36666666666666697</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189" s="12">
+        <v>45978</v>
+      </c>
+      <c r="B189" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>segunda-feira</v>
+      </c>
+      <c r="G189" s="6">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H189" s="6">
+        <f>((D189-C189)+(F189-E189))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>-0.36666666666666697</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190" s="12">
+        <v>45979</v>
+      </c>
+      <c r="B190" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>terça-feira</v>
+      </c>
+      <c r="G190" s="11">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H190" s="6">
+        <f>((D190-C190)+(F190-E190))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>-0.36666666666666697</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191" s="12">
+        <v>45980</v>
+      </c>
+      <c r="B191" s="5" t="str">
+        <f t="shared" ref="B191:B216" si="5">TEXT(A191,"dddd")</f>
+        <v>quarta-feira</v>
+      </c>
+      <c r="G191" s="6">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H191" s="6">
+        <f>((D191-C191)+(F191-E191))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>-0.36666666666666697</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192" s="12">
+        <v>45981</v>
+      </c>
+      <c r="B192" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>quinta-feira</v>
+      </c>
+      <c r="G192" s="11">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H192" s="6">
+        <f>((D192-C192)+(F192-E192))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>-0.36666666666666697</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193" s="12">
+        <v>45982</v>
+      </c>
+      <c r="B193" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>sexta-feira</v>
+      </c>
+      <c r="G193" s="6">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H193" s="6">
+        <f>((D193-C193)+(F193-E193))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>-0.36666666666666697</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194" s="12">
+        <v>45985</v>
+      </c>
+      <c r="B194" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>segunda-feira</v>
+      </c>
+      <c r="G194" s="11">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H194" s="6">
+        <f>((D194-C194)+(F194-E194))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>-0.36666666666666697</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A195" s="12">
+        <v>45986</v>
+      </c>
+      <c r="B195" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>terça-feira</v>
+      </c>
+      <c r="G195" s="6">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H195" s="6">
+        <f>((D195-C195)+(F195-E195))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>-0.36666666666666697</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196" s="12">
+        <v>45987</v>
+      </c>
+      <c r="B196" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>quarta-feira</v>
+      </c>
+      <c r="G196" s="11">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H196" s="6">
+        <f>((D196-C196)+(F196-E196))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>-0.36666666666666697</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197" s="12">
+        <v>45988</v>
+      </c>
+      <c r="B197" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>quinta-feira</v>
+      </c>
+      <c r="G197" s="6">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H197" s="6">
+        <f>((D197-C197)+(F197-E197))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>-0.36666666666666697</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A198" s="12">
+        <v>45989</v>
+      </c>
+      <c r="B198" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>sexta-feira</v>
+      </c>
+      <c r="G198" s="11">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H198" s="6">
+        <f>((D198-C198)+(F198-E198))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>-0.36666666666666697</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199" s="12">
+        <v>45992</v>
+      </c>
+      <c r="B199" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>segunda-feira</v>
+      </c>
+      <c r="G199" s="6">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H199" s="6">
+        <f>((D199-C199)+(F199-E199))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>-0.36666666666666697</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200" s="12">
+        <v>45993</v>
+      </c>
+      <c r="B200" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>terça-feira</v>
+      </c>
+      <c r="G200" s="11">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H200" s="6">
+        <f>((D200-C200)+(F200-E200))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>-0.36666666666666697</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201" s="12">
+        <v>45994</v>
+      </c>
+      <c r="B201" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>quarta-feira</v>
+      </c>
+      <c r="C201" s="6">
+        <v>0.3125</v>
+      </c>
+      <c r="D201" s="6">
+        <v>0.52222222222222225</v>
+      </c>
+      <c r="E201" s="6">
+        <v>0.58194444444444449</v>
+      </c>
+      <c r="F201" s="6">
+        <v>0.7416666666666667</v>
+      </c>
+      <c r="G201" s="6">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H201" s="6">
+        <f>((D201-C201)+(F201-E201))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>2.7777777777774904E-3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202" s="12">
+        <v>45995</v>
+      </c>
+      <c r="B202" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>quinta-feira</v>
+      </c>
+      <c r="C202" s="6">
+        <v>0.30902777777777779</v>
+      </c>
+      <c r="D202" s="6">
+        <v>0.52222222222222225</v>
+      </c>
+      <c r="E202" s="6">
+        <v>0.57847222222222228</v>
+      </c>
+      <c r="F202" s="6">
+        <v>0.7416666666666667</v>
+      </c>
+      <c r="G202" s="11">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H202" s="6">
+        <f>((D202-C202)+(F202-E202))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>9.7222222222219101E-3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203" s="12">
+        <v>45996</v>
+      </c>
+      <c r="B203" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>sexta-feira</v>
+      </c>
+      <c r="C203" s="6">
+        <v>0.3125</v>
+      </c>
+      <c r="D203" s="6">
+        <v>0.53402777777777777</v>
+      </c>
+      <c r="E203" s="6">
+        <v>0.58402777777777781</v>
+      </c>
+      <c r="F203" s="6">
+        <v>0.75902777777777775</v>
+      </c>
+      <c r="G203" s="6">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H203" s="6">
+        <f>((D203-C203)+(F203-E203))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>2.9861111111110727E-2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204" s="12">
+        <v>45999</v>
+      </c>
+      <c r="B204" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>segunda-feira</v>
+      </c>
+      <c r="C204" s="6">
+        <v>0.30486111111111114</v>
+      </c>
+      <c r="D204" s="6">
+        <v>0.5395833333333333</v>
+      </c>
+      <c r="E204" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F204" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="G204" s="11">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H204" s="6">
+        <f>((D204-C204)+(F204-E204))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>3.4722222222221821E-2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205" s="12">
+        <v>46000</v>
+      </c>
+      <c r="B205" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>terça-feira</v>
+      </c>
+      <c r="G205" s="6">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H205" s="6">
+        <f>((D205-C205)+(F205-E205))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>-0.36666666666666697</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206" s="12">
+        <v>46001</v>
+      </c>
+      <c r="B206" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>quarta-feira</v>
+      </c>
+      <c r="G206" s="11">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H206" s="6">
+        <f>((D206-C206)+(F206-E206))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>-0.36666666666666697</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207" s="12">
+        <v>46002</v>
+      </c>
+      <c r="B207" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>quinta-feira</v>
+      </c>
+      <c r="G207" s="6">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H207" s="6">
+        <f>((D207-C207)+(F207-E207))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>-0.36666666666666697</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A208" s="12">
+        <v>46003</v>
+      </c>
+      <c r="B208" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>sexta-feira</v>
+      </c>
+      <c r="G208" s="11">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H208" s="6">
+        <f>((D208-C208)+(F208-E208))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>-0.36666666666666697</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A209" s="12">
+        <v>46004</v>
+      </c>
+      <c r="B209" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>sábado</v>
+      </c>
+      <c r="G209" s="6">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H209" s="6">
+        <f>((D209-C209)+(F209-E209))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>-0.36666666666666697</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A210" s="12">
+        <v>46005</v>
+      </c>
+      <c r="B210" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>domingo</v>
+      </c>
+      <c r="G210" s="11">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H210" s="6">
+        <f>((D210-C210)+(F210-E210))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>-0.36666666666666697</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A211" s="12">
+        <v>46006</v>
+      </c>
+      <c r="B211" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>segunda-feira</v>
+      </c>
+      <c r="G211" s="6">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H211" s="6">
+        <f>((D211-C211)+(F211-E211))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>-0.36666666666666697</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A212" s="12">
+        <v>46007</v>
+      </c>
+      <c r="B212" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>terça-feira</v>
+      </c>
+      <c r="G212" s="11">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H212" s="6">
+        <f>((D212-C212)+(F212-E212))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>-0.36666666666666697</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A213" s="12">
+        <v>46008</v>
+      </c>
+      <c r="B213" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>quarta-feira</v>
+      </c>
+      <c r="G213" s="6">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H213" s="6">
+        <f>((D213-C213)+(F213-E213))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>-0.36666666666666697</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A214" s="12">
+        <v>46009</v>
+      </c>
+      <c r="B214" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>quinta-feira</v>
+      </c>
+      <c r="G214" s="11">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H214" s="6">
+        <f>((D214-C214)+(F214-E214))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>-0.36666666666666697</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A215" s="12">
+        <v>46010</v>
+      </c>
+      <c r="B215" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>sexta-feira</v>
+      </c>
+      <c r="G215" s="6">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H215" s="6">
+        <f>((D215-C215)+(F215-E215))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>-0.36666666666666697</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A216" s="12">
+        <v>46011</v>
+      </c>
+      <c r="B216" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>sábado</v>
+      </c>
+      <c r="G216" s="11">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H216" s="6">
+        <f>((D216-C216)+(F216-E216))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>-0.36666666666666697</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A217" s="12">
+        <v>46012</v>
+      </c>
+      <c r="B217" s="5" t="str">
+        <f t="shared" ref="B217:B248" si="6">TEXT(A217,"dddd")</f>
+        <v>domingo</v>
+      </c>
+      <c r="G217" s="6">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H217" s="6">
+        <f>((D217-C217)+(F217-E217))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>-0.36666666666666697</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A218" s="12">
+        <v>46013</v>
+      </c>
+      <c r="B218" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>segunda-feira</v>
+      </c>
+      <c r="G218" s="11">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H218" s="6">
+        <f>((D218-C218)+(F218-E218))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>-0.36666666666666697</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A219" s="12">
+        <v>46014</v>
+      </c>
+      <c r="B219" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>terça-feira</v>
+      </c>
+      <c r="G219" s="6">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H219" s="6">
+        <f>((D219-C219)+(F219-E219))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>-0.36666666666666697</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A220" s="12">
+        <v>46015</v>
+      </c>
+      <c r="B220" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>quarta-feira</v>
+      </c>
+      <c r="G220" s="11">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H220" s="6">
+        <f>((D220-C220)+(F220-E220))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>-0.36666666666666697</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A221" s="12">
+        <v>46016</v>
+      </c>
+      <c r="B221" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>quinta-feira</v>
+      </c>
+      <c r="G221" s="6">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H221" s="6">
+        <f>((D221-C221)+(F221-E221))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>-0.36666666666666697</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A222" s="12">
+        <v>46017</v>
+      </c>
+      <c r="B222" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>sexta-feira</v>
+      </c>
+      <c r="G222" s="11">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H222" s="6">
+        <f>((D222-C222)+(F222-E222))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>-0.36666666666666697</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A223" s="12">
+        <v>46018</v>
+      </c>
+      <c r="B223" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>sábado</v>
+      </c>
+      <c r="G223" s="6">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H223" s="6">
+        <f>((D223-C223)+(F223-E223))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>-0.36666666666666697</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A224" s="12">
+        <v>46019</v>
+      </c>
+      <c r="B224" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>domingo</v>
+      </c>
+      <c r="G224" s="11">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H224" s="6">
+        <f>((D224-C224)+(F224-E224))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>-0.36666666666666697</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A225" s="12">
+        <v>46020</v>
+      </c>
+      <c r="B225" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>segunda-feira</v>
+      </c>
+      <c r="G225" s="6">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H225" s="6">
+        <f>((D225-C225)+(F225-E225))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>-0.36666666666666697</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A226" s="12">
+        <v>46021</v>
+      </c>
+      <c r="B226" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>terça-feira</v>
+      </c>
+      <c r="G226" s="11">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H226" s="6">
+        <f>((D226-C226)+(F226-E226))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>-0.36666666666666697</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A227" s="12">
+        <v>46022</v>
+      </c>
+      <c r="B227" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>quarta-feira</v>
+      </c>
+      <c r="G227" s="6">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H227" s="6">
+        <f>((D227-C227)+(F227-E227))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>-0.36666666666666697</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A228" s="12">
+        <v>46023</v>
+      </c>
+      <c r="B228" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>quinta-feira</v>
+      </c>
+      <c r="G228" s="11">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H228" s="6">
+        <f>((D228-C228)+(F228-E228))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>-0.36666666666666697</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A229" s="12">
+        <v>46024</v>
+      </c>
+      <c r="B229" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>sexta-feira</v>
+      </c>
+      <c r="G229" s="6">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H229" s="6">
+        <f>((D229-C229)+(F229-E229))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>-0.36666666666666697</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A230" s="12">
+        <v>46025</v>
+      </c>
+      <c r="B230" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>sábado</v>
+      </c>
+      <c r="G230" s="11">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H230" s="6">
+        <f>((D230-C230)+(F230-E230))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>-0.36666666666666697</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A231" s="12">
+        <v>46026</v>
+      </c>
+      <c r="B231" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>domingo</v>
+      </c>
+      <c r="G231" s="6">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H231" s="6">
+        <f>((D231-C231)+(F231-E231))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>-0.36666666666666697</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A232" s="12">
+        <v>46027</v>
+      </c>
+      <c r="B232" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>segunda-feira</v>
+      </c>
+      <c r="G232" s="11">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H232" s="6">
+        <f>((D232-C232)+(F232-E232))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>-0.36666666666666697</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A233" s="12">
+        <v>46028</v>
+      </c>
+      <c r="B233" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>terça-feira</v>
+      </c>
+      <c r="G233" s="6">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H233" s="6">
+        <f>((D233-C233)+(F233-E233))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>-0.36666666666666697</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A234" s="12">
+        <v>46029</v>
+      </c>
+      <c r="B234" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>quarta-feira</v>
+      </c>
+      <c r="G234" s="11">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H234" s="6">
+        <f>((D234-C234)+(F234-E234))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>-0.36666666666666697</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A235" s="12">
+        <v>46030</v>
+      </c>
+      <c r="B235" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>quinta-feira</v>
+      </c>
+      <c r="G235" s="6">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H235" s="6">
+        <f>((D235-C235)+(F235-E235))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>-0.36666666666666697</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A236" s="12">
+        <v>46031</v>
+      </c>
+      <c r="B236" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>sexta-feira</v>
+      </c>
+      <c r="G236" s="11">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H236" s="6">
+        <f>((D236-C236)+(F236-E236))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>-0.36666666666666697</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A237" s="12">
+        <v>46032</v>
+      </c>
+      <c r="B237" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>sábado</v>
+      </c>
+      <c r="G237" s="6">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H237" s="6">
+        <f>((D237-C237)+(F237-E237))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>-0.36666666666666697</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A238" s="12">
+        <v>46033</v>
+      </c>
+      <c r="B238" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>domingo</v>
+      </c>
+      <c r="G238" s="11">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H238" s="6">
+        <f>((D238-C238)+(F238-E238))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>-0.36666666666666697</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A239" s="12">
+        <v>46034</v>
+      </c>
+      <c r="B239" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>segunda-feira</v>
+      </c>
+      <c r="G239" s="6">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H239" s="6">
+        <f>((D239-C239)+(F239-E239))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>-0.36666666666666697</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A240" s="12">
+        <v>46035</v>
+      </c>
+      <c r="B240" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>terça-feira</v>
+      </c>
+      <c r="G240" s="11">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H240" s="6">
+        <f>((D240-C240)+(F240-E240))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>-0.36666666666666697</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A241" s="12">
+        <v>46036</v>
+      </c>
+      <c r="B241" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>quarta-feira</v>
+      </c>
+      <c r="G241" s="6">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H241" s="6">
+        <f>((D241-C241)+(F241-E241))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>-0.36666666666666697</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A242" s="12">
+        <v>46037</v>
+      </c>
+      <c r="B242" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>quinta-feira</v>
+      </c>
+      <c r="G242" s="11">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H242" s="6">
+        <f>((D242-C242)+(F242-E242))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>-0.36666666666666697</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A243" s="12">
+        <v>46038</v>
+      </c>
+      <c r="B243" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>sexta-feira</v>
+      </c>
+      <c r="G243" s="6">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H243" s="6">
+        <f>((D243-C243)+(F243-E243))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>-0.36666666666666697</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A244" s="12">
+        <v>46039</v>
+      </c>
+      <c r="B244" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>sábado</v>
+      </c>
+      <c r="G244" s="11">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H244" s="6">
+        <f>((D244-C244)+(F244-E244))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>-0.36666666666666697</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A245" s="12">
+        <v>46040</v>
+      </c>
+      <c r="B245" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>domingo</v>
+      </c>
+      <c r="G245" s="6">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H245" s="6">
+        <f>((D245-C245)+(F245-E245))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>-0.36666666666666697</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A246" s="12">
+        <v>46041</v>
+      </c>
+      <c r="B246" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>segunda-feira</v>
+      </c>
+      <c r="G246" s="11">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H246" s="6">
+        <f>((D246-C246)+(F246-E246))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>-0.36666666666666697</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A247" s="12">
+        <v>46042</v>
+      </c>
+      <c r="B247" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>terça-feira</v>
+      </c>
+      <c r="G247" s="6">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H247" s="6">
+        <f>((D247-C247)+(F247-E247))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>-0.36666666666666697</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A248" s="12">
+        <v>46043</v>
+      </c>
+      <c r="B248" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>quarta-feira</v>
+      </c>
+      <c r="G248" s="11">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H248" s="6">
+        <f>((D248-C248)+(F248-E248))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>-0.36666666666666697</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A249" s="12">
+        <v>46044</v>
+      </c>
+      <c r="B249" s="5" t="str">
+        <f t="shared" ref="B249:B280" si="7">TEXT(A249,"dddd")</f>
+        <v>quinta-feira</v>
+      </c>
+      <c r="G249" s="6">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H249" s="6">
+        <f>((D249-C249)+(F249-E249))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>-0.36666666666666697</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A250" s="12">
+        <v>46045</v>
+      </c>
+      <c r="B250" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>sexta-feira</v>
+      </c>
+      <c r="G250" s="11">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H250" s="6">
+        <f>((D250-C250)+(F250-E250))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>-0.36666666666666697</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A251" s="12">
+        <v>46046</v>
+      </c>
+      <c r="B251" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>sábado</v>
+      </c>
+      <c r="G251" s="6">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H251" s="6">
+        <f>((D251-C251)+(F251-E251))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>-0.36666666666666697</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A252" s="12">
+        <v>46047</v>
+      </c>
+      <c r="B252" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>domingo</v>
+      </c>
+      <c r="G252" s="11">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H252" s="6">
+        <f>((D252-C252)+(F252-E252))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>-0.36666666666666697</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A253" s="12">
+        <v>46048</v>
+      </c>
+      <c r="B253" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>segunda-feira</v>
+      </c>
+      <c r="G253" s="6">
+        <v>0.36666666666666697</v>
+      </c>
+      <c r="H253" s="6">
+        <f>((D253-C253)+(F253-E253))-Tabela1[[#This Row],[Expediente]]</f>
+        <v>-0.36666666666666697</v>
       </c>
     </row>
   </sheetData>
